--- a/Python/data/scrapKeywords.xlsx
+++ b/Python/data/scrapKeywords.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sar_loop_ai\Python\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Sar_loop_ai\Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7790FFF0-DF55-43D8-A809-260D99919190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,13 +42,13 @@
     <t>login</t>
   </si>
   <si>
-    <t>home page new full</t>
+    <t>signup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,7 +359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Python/data/scrapKeywords.xlsx
+++ b/Python/data/scrapKeywords.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Sar_loop_ai\Python\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sar_loop_ai\Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7790FFF0-DF55-43D8-A809-260D99919190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,30 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>search_list</t>
   </si>
   <si>
     <t>app</t>
   </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>signup</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,11 +346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H12" activeCellId="1" sqref="C11 H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,26 +365,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Python/data/scrapKeywords.xlsx
+++ b/Python/data/scrapKeywords.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>search_list</t>
   </si>
   <si>
     <t>app</t>
+  </si>
+  <si>
+    <t>ui</t>
   </si>
 </sst>
 </file>
@@ -347,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" activeCellId="1" sqref="C11 H12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,6 +368,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
